--- a/banhang24/Template/ExportExcel/Report/BaoCaoKho/Teamplate_BaoCaoHangHoaXuatChuyenHang.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoKho/Teamplate_BaoCaoHangHoaXuatChuyenHang.xlsx
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>BÁO CÁO XUẤT HÀNG HÓA THEO ĐIỀU CHUYỂN HÀNG</t>
   </si>
@@ -132,7 +129,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,14 +141,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,49 +165,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -237,9 +191,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -251,9 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -270,18 +218,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,61 +543,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,30 +864,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="8">
-        <f>SUM(H$5:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <f>SUM(I$5:I28)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -960,17 +876,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="15" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="34" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="4" customWidth="1"/>
@@ -984,86 +900,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1078,7 +994,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1093,7 +1009,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1108,7 +1024,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1123,7 +1039,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1138,7 +1054,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1153,7 +1069,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1168,7 +1084,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1183,7 +1099,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1198,7 +1114,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1213,7 +1129,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1228,7 +1144,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1243,7 +1159,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1258,7 +1174,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1273,7 +1189,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1288,7 +1204,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1303,7 +1219,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1318,7 +1234,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1333,7 +1249,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1348,7 +1264,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1363,7 +1279,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1378,7 +1294,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1393,7 +1309,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1408,7 +1324,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1421,36 +1337,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="8">
-        <f>SUM(I$5:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8">
-        <f>SUM(K$5:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8">
-        <f>SUM(M$5:M28)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
